--- a/data/manual_summaries.xlsx
+++ b/data/manual_summaries.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdmol\Desktop\MSCAPP\CAPP30255\NLP-Police-Complaints\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C94BBF-8A78-4309-BBA2-CE8DE44B2170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="manual_summaries" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="manual_summaries"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,8 +45,7 @@
     <t>1085499.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">
-On June 7, 2017, Subject 1 was detained by Chicago police for a traffic violation and alleged unjust detention and overly tight handcuffing. The Independent Police Review Authority (IPRA) found the detention justified due to the traffic violation and Subject 1's behavior. Allegations of unjust detention were exonerated, and claims of tight handcuffing were unfounded due to lack of injury evidence.</t>
+    <t>On June 7, 2017, Subject 1 was detained by Chicago police for a traffic violation and alleged unjust detention and overly tight handcuffing. The Independent Police Review Authority (IPRA) found the detention justified due to the traffic violation and Subject 1's behavior. Allegations of unjust detention were exonerated, and claims of tight handcuffing were unfounded due to lack of injury evidence.</t>
   </si>
   <si>
     <t>2010-1032871.txt</t>
@@ -189,26 +182,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,7 +214,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -231,39 +233,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -290,22 +302,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -317,131 +389,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -452,225 +551,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="1" max="1" style="5" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="68.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="153.75">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="85.5">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="153.75">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="74.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="131.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="108.75">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="96.75">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="96.75">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="142.5">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="85.5">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="108.75">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="108.75">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="108.75">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/manual_summaries.xlsx
+++ b/data/manual_summaries.xlsx
@@ -131,10 +131,10 @@
     <t>The report details an incident on June 20, 2015, involving a police shooting in Chicago. Officer A, responding to a tip about a man with a gun, encountered Subject 1, who fled with a firearm. During the pursuit, Subject 1 turned toward Officer A with the firearm, leading Officer A to discharge his weapon five times, hitting Subject 1 twice. Subject 1 was critically injured and later pronounced dead. Investigations supported Officer A's use of deadly force as reasonable, given Subject 1 was armed and perceived as an immediate threat. Evidence included witness statements, forensic analysis linking Subject 1 to the recovered firearm, and surveillance video analysis, which suggested Subject 1 discarded his firearm around the time Officer A fired. The conclusion was that Officer A's actions were within department policy and justified given the circumstances.</t>
   </si>
   <si>
-    <t>2018-1089298.txt</t>
-  </si>
-  <si>
-    <t>The incident report covers an event where Officer A shot Subject 1, who fled with a firearm and was perceived as a threat. Subject 1 died from his injuries. The investigation, incorporating witness statements and forensic evidence, concluded that Subject 1 was armed and posed an imminent threat. Officer A's use of deadly force was found to be reasonable and within policy guidelines, implying no actions were taken against him.</t>
+    <t>2018-1091051.txt</t>
+  </si>
+  <si>
+    <t>On July 16, 2018, Officers  and  responded to a call at 's residence involving a dispute with his tenant, . Following an argument,  alleged that he was arrested without justification. COPA's investigation, which included interviews and review of body-worn camera (BWC) footage, found that the officers had probable cause for the arrest based on 's request to sign a criminal complaint against . Additionally, allegations that Officers  and  failed to comply with CPD Directive Special Order S03-14 by not activating their BWCs were unfounded, as further review confirmed that the incident was recorded. Therefore, the arrest allegation was exonerated, and the BWC allegations were unfounded.</t>
   </si>
   <si>
     <t>1080064.txt</t>
@@ -248,10 +248,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
